--- a/nuevo programa/caso 1.xlsx
+++ b/nuevo programa/caso 1.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="f_and_ouput" sheetId="1" state="visible" r:id="rId1"/>
@@ -661,7 +661,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.73046875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="14.88" customWidth="1" style="22" min="1" max="1"/>
     <col width="28.11" customWidth="1" style="22" min="2" max="2"/>
@@ -1719,7 +1719,7 @@
       <selection pane="bottomRight" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.73046875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.64" customWidth="1" style="22" min="1" max="1"/>
     <col width="70.33" customWidth="1" style="22" min="2" max="2"/>
@@ -1791,7 +1791,11 @@
       <c r="A2" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="n"/>
+      <c r="B2" s="31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
       <c r="C2" s="32" t="n">
         <v>169.7056</v>
       </c>
@@ -1831,7 +1835,11 @@
       <c r="A3" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="n"/>
+      <c r="B3" s="31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
       <c r="C3" s="32" t="n">
         <v>176.7767</v>
       </c>
@@ -8754,7 +8762,7 @@
       <selection pane="bottomRight" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.73046875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.64" customWidth="1" style="22" min="1" max="1"/>
     <col width="70.33" customWidth="1" style="22" min="2" max="2"/>
@@ -15751,15 +15759,15 @@
   </sheetPr>
   <dimension ref="A1:F220"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.73046875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.64" customWidth="1" style="22" min="1" max="2"/>
     <col width="48.66" customWidth="1" style="22" min="3" max="3"/>
@@ -15806,7 +15814,11 @@
       <c r="B2" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="31" t="n"/>
+      <c r="C2" s="31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
       <c r="D2" s="32" t="n">
         <v>10</v>
       </c>
@@ -15824,7 +15836,11 @@
       <c r="B3" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="31" t="n"/>
+      <c r="C3" s="31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
       <c r="D3" s="32" t="n">
         <v>1</v>
       </c>
@@ -15842,7 +15858,11 @@
       <c r="B4" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="31" t="n"/>
+      <c r="C4" s="31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
       <c r="D4" s="32" t="n">
         <v>0</v>
       </c>
@@ -15858,9 +15878,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
-      <c r="C5" s="31" t="n"/>
+      <c r="C5" s="31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
       <c r="D5" s="32" t="n">
         <v>1</v>
       </c>
@@ -15878,7 +15902,11 @@
       <c r="B6" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="31" t="n"/>
+      <c r="C6" s="31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
       <c r="D6" s="32" t="n">
         <v>1</v>
       </c>
@@ -18412,7 +18440,7 @@
       <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.73046875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.64" customWidth="1" style="22" min="1" max="2"/>
     <col width="14.66" customWidth="1" style="22" min="3" max="3"/>
@@ -18471,16 +18499,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="39" t="n">
-        <v>124.1403815451763</v>
+        <v>124.4207865485507</v>
       </c>
       <c r="C2" s="39" t="n">
-        <v>-6.256197958400734</v>
+        <v>-3.006431234806304</v>
       </c>
       <c r="D2" s="39" t="n">
-        <v>9.972728292276527</v>
+        <v>10.01134673407016</v>
       </c>
       <c r="E2" s="39" t="n">
-        <v>-0.566528027947462</v>
+        <v>-0.001042816071767927</v>
       </c>
       <c r="F2" s="37" t="n"/>
       <c r="G2" s="37" t="n"/>
@@ -18507,16 +18535,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="39" t="n">
-        <v>124.9031591723242</v>
+        <v>125.0975252664117</v>
       </c>
       <c r="C3" s="39" t="n">
-        <v>-6.574278004130198</v>
+        <v>-3.230160805651337</v>
       </c>
       <c r="D3" s="39" t="n">
-        <v>11.01397396979202</v>
+        <v>11.04691787462799</v>
       </c>
       <c r="E3" s="39" t="n">
-        <v>-0.3141610915767413</v>
+        <v>0.2896519305950983</v>
       </c>
       <c r="F3" s="37" t="n"/>
       <c r="G3" s="37" t="n"/>
@@ -18543,16 +18571,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="39" t="n">
-        <v>0.7042437101481301</v>
+        <v>125.0956671229278</v>
       </c>
       <c r="C4" s="39" t="n">
-        <v>83.16907532759652</v>
+        <v>-3.231324595976465</v>
       </c>
       <c r="D4" s="39" t="n">
-        <v>0.9996304519038679</v>
+        <v>12.0492667398068</v>
       </c>
       <c r="E4" s="39" t="n">
-        <v>-0.005637817888616405</v>
+        <v>0.2762473422194333</v>
       </c>
       <c r="F4" s="37" t="n"/>
       <c r="G4" s="37" t="n"/>
@@ -26248,7 +26276,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.73046875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="8.789999999999999" customWidth="1" style="22" min="1" max="1"/>
     <col width="15.22" customWidth="1" style="22" min="2" max="2"/>
@@ -26279,10 +26307,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="32" t="n">
-        <v>-54.07399825775761</v>
+        <v>-54.03005554695289</v>
       </c>
       <c r="C2" s="32" t="n">
-        <v>-164.3760075524252</v>
+        <v>-80.34440150234713</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="23">
@@ -26290,10 +26318,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="32" t="n">
-        <v>55.71756992457979</v>
+        <v>54.6389528195975</v>
       </c>
       <c r="C3" s="32" t="n">
-        <v>77.12004452484575</v>
+        <v>80.56866341494404</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="23">
@@ -28192,7 +28220,7 @@
       <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.73046875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="8.789999999999999" customWidth="1" style="22" min="1" max="2"/>
     <col width="15.22" customWidth="1" style="22" min="3" max="3"/>
@@ -28230,10 +28258,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="32" t="n">
-        <v>0.0001503937211838834</v>
+        <v>9.867736925175952e-05</v>
       </c>
       <c r="D2" s="32" t="n">
-        <v>0.003989317356066556</v>
+        <v>0.002617498514620288</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="23">
@@ -28244,10 +28272,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="32" t="n">
-        <v>0.9278369126612426</v>
+        <v>0.6087787769021399</v>
       </c>
       <c r="D3" s="32" t="n">
-        <v>-0.3497862754255193</v>
+        <v>-0.229504191981257</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="23">
@@ -28261,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="32" t="n">
-        <v>29.42717440488356</v>
+        <v>1.869162454510399e-08</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="23">
@@ -28269,10 +28297,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="32" t="n">
-        <v>0.4959592032832035</v>
+        <v>9.909168226127787e-06</v>
       </c>
       <c r="D5" s="32" t="n">
         <v>0</v>
@@ -28286,10 +28314,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="32" t="n">
-        <v>0.2196251571555417</v>
+        <v>9.909203484048963e-06</v>
       </c>
       <c r="D6" s="32" t="n">
-        <v>58.1745855807664</v>
+        <v>0.00262476217927883</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1" s="23">
@@ -30379,11 +30407,11 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.73046875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="10" customWidth="1" style="22" min="1" max="1"/>
     <col width="11.45" customWidth="1" style="22" min="2" max="2"/>
@@ -30427,22 +30455,22 @@
     </row>
     <row r="2" ht="12.75" customHeight="1" s="23">
       <c r="A2" s="43" t="n">
-        <v>1.643571666822183</v>
+        <v>0.6088972726446045</v>
       </c>
       <c r="B2" s="43" t="n">
-        <v>-87.25596302757941</v>
+        <v>0.2242619125969156</v>
       </c>
       <c r="C2" s="43" t="n">
-        <v>1.643571666821172</v>
+        <v>0.6088972726431018</v>
       </c>
       <c r="D2" s="43" t="n">
-        <v>87.25596302758051</v>
+        <v>-0.2242619125957334</v>
       </c>
       <c r="E2" s="43" t="n">
-        <v>1.011191130828593e-12</v>
+        <v>1.502686863830149e-12</v>
       </c>
       <c r="F2" s="43" t="n">
-        <v>174.5119260551599</v>
+        <v>0.448523825192649</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="23"/>
